--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3181295.855508031</v>
+        <v>3179002.260051438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.8232557938182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>77.2761407234061</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.38900174542622</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.6796929637933</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>166.7407881259178</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>128.2808324720644</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5199829376693</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501704</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>132.5319226158848</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>46.63843252358405</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187904</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.40964990483195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>1.340843145326603e-13</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187887</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>14.9215867835839</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>196.9206411790011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.66396365646934</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060195</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4114987159102</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>91.8999605662476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3235,16 +3235,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>237.1280940168098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>25.52471385612599</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>110.9396563989398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.647807131574</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1615.247647195695</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>299.2648838844848</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.9684409159566</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>957.2304598751768</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.841548125043</v>
+        <v>297.2899590611448</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>297.2899590611448</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>297.2899590611448</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>927.720553932932</v>
       </c>
       <c r="W4" t="n">
-        <v>1262.62367816659</v>
+        <v>927.720553932932</v>
       </c>
       <c r="X4" t="n">
-        <v>1034.634127268573</v>
+        <v>699.7310030349147</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.841548125043</v>
+        <v>478.9384238913846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>557.1590183167805</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>550.213517567577</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2694.121459355123</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.7915515140952</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>363.7915515140952</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>363.7915515140952</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>363.7915515140952</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4762,13 +4762,13 @@
         <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556427</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576253</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140952</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.39542574861</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4884,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004717</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168647</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092253</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249843</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356203</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232844</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408912</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429807</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938885</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780505001</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780505001</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381642</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E16" t="n">
-        <v>464.505145055771</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578605</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.97592202427</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>944.1833428807399</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768857</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036844</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690899</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473686</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685185</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406115</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282757</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458824</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216015</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583154</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377267</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340306</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442289</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987584</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622242</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343171</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219812</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>449.343984139588</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578605</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176859</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035994</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892464</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
         <v>464.5051450557705</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>244.2098454714573</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714573</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
         <v>739.5354516872161</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9556134883064829</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601775</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.4223302771055</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>28.78901421003621</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.7699989901</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610428</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.00954930702119</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62417772602124</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>15.00954930701818</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>55.74112246243955</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715402.4342039402</v>
+        <v>715402.4342039403</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312476</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121054</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768685</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768759</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768877</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768854</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768868</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768901</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="K4" t="n">
-        <v>9947.144321768952</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768938</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627208.4177917383</v>
+        <v>-627208.4177917389</v>
       </c>
       <c r="C6" t="n">
-        <v>317904.6873646287</v>
+        <v>317904.687364629</v>
       </c>
       <c r="D6" t="n">
-        <v>521343.4289767342</v>
+        <v>521343.4289767341</v>
       </c>
       <c r="E6" t="n">
-        <v>269771.1387757239</v>
+        <v>269736.4008502885</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830796</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830801</v>
+        <v>595148.8626576441</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830797</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="J6" t="n">
-        <v>427578.4227730971</v>
+        <v>427543.6848476614</v>
       </c>
       <c r="K6" t="n">
-        <v>546073.5078770249</v>
+        <v>546038.7699515888</v>
       </c>
       <c r="L6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="M6" t="n">
-        <v>510128.5726475675</v>
+        <v>510093.8347221318</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830792</v>
+        <v>595148.862657644</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830792</v>
+        <v>595148.862657644</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.4146828622354</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>69.15782192316307</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>270.1339965911648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.2420326896602</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>202.9903125525512</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>17.14021555086683</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.06467041442545</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4891510446031</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>237.1991780625842</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.884565813007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.748650425163023e-12</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.3408431453266e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.340843145326603e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847159</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578881</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.9915131655318</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33029,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357818</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082912</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>276.9646925441598</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.5431097317914</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837098</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>159.339384910357</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643586973</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789219</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191315</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>199.0097390795103</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36677,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683835</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>342.5164587638467</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>150.1270658774932</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
